--- a/GBM Attendance.xlsx
+++ b/GBM Attendance.xlsx
@@ -11,14 +11,14 @@
     <sheet state="visible" name="Retention for 2023 Year" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'RAW DATA'!$A$1:$E$3290</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'RAW DATA'!$A$1:$E$3325</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="1570">
   <si>
     <t>Date</t>
   </si>
@@ -4704,6 +4704,27 @@
   </si>
   <si>
     <t>Brandon Nguyen</t>
+  </si>
+  <si>
+    <t>Dante Amaya</t>
+  </si>
+  <si>
+    <t>Monica Lopez Rodriguez</t>
+  </si>
+  <si>
+    <t>Nicholas Abeyta</t>
+  </si>
+  <si>
+    <t>Cam Brown</t>
+  </si>
+  <si>
+    <t>Riley Erskine</t>
+  </si>
+  <si>
+    <t>Seth Criger</t>
+  </si>
+  <si>
+    <t>Matias Contreras Prieto</t>
   </si>
   <si>
     <t>Retention</t>
@@ -4793,7 +4814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -4879,11 +4900,39 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5028,6 +5077,18 @@
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -5178,11 +5239,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1633583179"/>
-        <c:axId val="1319333068"/>
+        <c:axId val="2004892490"/>
+        <c:axId val="942880550"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1633583179"/>
+        <c:axId val="2004892490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -5235,10 +5296,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1319333068"/>
+        <c:crossAx val="942880550"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1319333068"/>
+        <c:axId val="942880550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,7 +5374,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633583179"/>
+        <c:crossAx val="2004892490"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5660,11 +5721,11 @@
         <v>80.0</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D5" si="1">1-(ABS(C3-B3)/C3)</f>
+        <f t="shared" ref="D3:D6" si="1">1-(ABS(C3-B3)/C3)</f>
         <v>0.825</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E5" si="2">C3/C2</f>
+        <f t="shared" ref="E3:E6" si="2">C3/C2</f>
         <v>0.6722689076</v>
       </c>
     </row>
@@ -5713,13 +5774,25 @@
       <c r="B6" s="6">
         <v>50.0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5714285714</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.593220339</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>45586.0</v>
       </c>
+      <c r="B7" s="6">
+        <v>44.0</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
@@ -5750,19 +5823,19 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" ref="B12:D12" si="3">AVERAGE(B2:B10)</f>
-        <v>57.25</v>
+        <v>54.6</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="3"/>
-        <v>78.5</v>
+        <v>69.8</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="3"/>
-        <v>0.8607546408</v>
+        <v>0.7884231235</v>
       </c>
       <c r="E12" s="7">
         <f>AVERAGE(E2:E9)</f>
-        <v>0.8086134454</v>
+        <v>0.7547651688</v>
       </c>
     </row>
     <row r="13">
@@ -13445,15 +13518,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f t="shared" ref="C2:C126" si="1">TEXT(A2, "mm")</f>
+        <f t="shared" ref="C2:C127" si="1">TEXT(A2, "mm")</f>
         <v>01</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f t="shared" ref="D2:D126" si="2">TEXT(A2, "dd")</f>
+        <f t="shared" ref="D2:D127" si="2">TEXT(A2, "dd")</f>
         <v>28</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f t="shared" ref="E2:E126" si="3">TEXT(A2, "yyyy")</f>
+        <f t="shared" ref="E2:E127" si="3">TEXT(A2, "yyyy")</f>
         <v>2019</v>
       </c>
       <c r="F2" s="10">
@@ -13464,7 +13537,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H126" si="5">IF(G2 = "Fall", 0,1)</f>
+        <f t="shared" ref="H2:H127" si="5">IF(G2 = "Fall", 0,1)</f>
         <v>1</v>
       </c>
       <c r="I2" s="6">
@@ -13521,7 +13594,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K126" si="6">B2</f>
+        <f t="shared" ref="K3:K127" si="6">B2</f>
         <v>9</v>
       </c>
       <c r="L3" s="6">
@@ -19263,7 +19336,7 @@
         <v>2024</v>
       </c>
       <c r="F123" s="10">
-        <f t="shared" ref="F123:F126" si="17">INT((A123 - DATE(2024,8,26)) / 7) + 1</f>
+        <f t="shared" ref="F123:F127" si="17">INT((A123 - DATE(2024,8,26)) / 7) + 1</f>
         <v>4</v>
       </c>
       <c r="G123" s="6" t="s">
@@ -19418,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="6">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="J126" s="6">
         <v>0.0</v>
@@ -19435,7 +19508,52 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="17"/>
+      <c r="A127" s="13">
+        <v>45579.0</v>
+      </c>
+      <c r="B127" s="10">
+        <f>Countif('RAW DATA'!B:B,A127)</f>
+        <v>35</v>
+      </c>
+      <c r="C127" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D127" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E127" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="F127" s="10">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K127" s="10">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="L127" s="6">
+        <v>80.0</v>
+      </c>
+      <c r="M127" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="17"/>
@@ -21829,7 +21947,10 @@
         <f>Countif('RAW DATA'!B:B,'Meeting data'!A102)</f>
         <v>35</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="19">
+        <f>Countif('RAW DATA'!B:B,'Meeting data'!A127)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
@@ -21998,11 +22119,11 @@
         <v>44095.745402291665</v>
       </c>
       <c r="B2" s="16" t="str">
-        <f t="shared" ref="B2:B3290" si="1">TEXT(A2, "mm/dd/yyyy")</f>
+        <f t="shared" ref="B2:B3325" si="1">TEXT(A2, "mm/dd/yyyy")</f>
         <v>09/21/2020</v>
       </c>
       <c r="C2" s="16" t="str">
-        <f t="shared" ref="C2:C3290" si="2">text(A2,"yyyy")</f>
+        <f t="shared" ref="C2:C3325" si="2">text(A2,"yyyy")</f>
         <v>2020</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -81456,248 +81577,598 @@
       <c r="E3290" s="6"/>
     </row>
     <row r="3291">
-      <c r="A3291" s="34"/>
-      <c r="B3291" s="16"/>
-      <c r="C3291" s="16"/>
-      <c r="D3291" s="35"/>
+      <c r="A3291" s="47">
+        <v>45579.73086856482</v>
+      </c>
+      <c r="B3291" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3291" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3291" s="52" t="s">
+        <v>1562</v>
+      </c>
       <c r="E3291" s="6"/>
     </row>
     <row r="3292">
-      <c r="A3292" s="34"/>
-      <c r="B3292" s="16"/>
-      <c r="C3292" s="16"/>
-      <c r="D3292" s="35"/>
+      <c r="A3292" s="44">
+        <v>45579.730938078705</v>
+      </c>
+      <c r="B3292" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3292" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3292" s="53" t="s">
+        <v>918</v>
+      </c>
       <c r="E3292" s="6"/>
     </row>
     <row r="3293">
-      <c r="A3293" s="34"/>
-      <c r="B3293" s="16"/>
-      <c r="C3293" s="16"/>
-      <c r="D3293" s="35"/>
+      <c r="A3293" s="47">
+        <v>45579.7309434375</v>
+      </c>
+      <c r="B3293" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3293" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3293" s="52" t="s">
+        <v>1156</v>
+      </c>
       <c r="E3293" s="6"/>
     </row>
     <row r="3294">
-      <c r="A3294" s="34"/>
-      <c r="B3294" s="16"/>
-      <c r="C3294" s="16"/>
-      <c r="D3294" s="35"/>
+      <c r="A3294" s="44">
+        <v>45579.73097628472</v>
+      </c>
+      <c r="B3294" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3294" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3294" s="53" t="s">
+        <v>1526</v>
+      </c>
       <c r="E3294" s="6"/>
     </row>
     <row r="3295">
-      <c r="A3295" s="34"/>
-      <c r="B3295" s="16"/>
-      <c r="C3295" s="16"/>
-      <c r="D3295" s="35"/>
+      <c r="A3295" s="47">
+        <v>45579.73098739583</v>
+      </c>
+      <c r="B3295" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3295" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3295" s="52" t="s">
+        <v>1563</v>
+      </c>
       <c r="E3295" s="6"/>
     </row>
     <row r="3296">
-      <c r="A3296" s="34"/>
-      <c r="B3296" s="16"/>
-      <c r="C3296" s="16"/>
-      <c r="D3296" s="35"/>
+      <c r="A3296" s="44">
+        <v>45579.73099686342</v>
+      </c>
+      <c r="B3296" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3296" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3296" s="53" t="s">
+        <v>1564</v>
+      </c>
       <c r="E3296" s="6"/>
     </row>
     <row r="3297">
-      <c r="A3297" s="34"/>
-      <c r="B3297" s="16"/>
-      <c r="C3297" s="16"/>
-      <c r="D3297" s="35"/>
+      <c r="A3297" s="47">
+        <v>45579.73101383101</v>
+      </c>
+      <c r="B3297" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3297" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3297" s="52" t="s">
+        <v>1539</v>
+      </c>
       <c r="E3297" s="6"/>
     </row>
     <row r="3298">
-      <c r="A3298" s="34"/>
-      <c r="B3298" s="16"/>
-      <c r="C3298" s="16"/>
-      <c r="D3298" s="35"/>
+      <c r="A3298" s="44">
+        <v>45579.731046574074</v>
+      </c>
+      <c r="B3298" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3298" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3298" s="53" t="s">
+        <v>1565</v>
+      </c>
       <c r="E3298" s="6"/>
     </row>
     <row r="3299">
-      <c r="A3299" s="34"/>
-      <c r="B3299" s="16"/>
-      <c r="C3299" s="16"/>
-      <c r="D3299" s="35"/>
+      <c r="A3299" s="47">
+        <v>45579.73104921296</v>
+      </c>
+      <c r="B3299" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3299" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3299" s="52" t="s">
+        <v>1066</v>
+      </c>
       <c r="E3299" s="6"/>
     </row>
     <row r="3300">
-      <c r="A3300" s="34"/>
-      <c r="B3300" s="16"/>
-      <c r="C3300" s="16"/>
-      <c r="D3300" s="35"/>
+      <c r="A3300" s="44">
+        <v>45579.73105505787</v>
+      </c>
+      <c r="B3300" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3300" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3300" s="53" t="s">
+        <v>1566</v>
+      </c>
       <c r="E3300" s="6"/>
     </row>
     <row r="3301">
-      <c r="A3301" s="34"/>
-      <c r="B3301" s="16"/>
-      <c r="C3301" s="16"/>
-      <c r="D3301" s="35"/>
+      <c r="A3301" s="47">
+        <v>45579.731118310185</v>
+      </c>
+      <c r="B3301" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3301" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3301" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="E3301" s="6"/>
     </row>
     <row r="3302">
-      <c r="A3302" s="34"/>
-      <c r="B3302" s="16"/>
-      <c r="C3302" s="16"/>
-      <c r="D3302" s="35"/>
+      <c r="A3302" s="44">
+        <v>45579.7311237963</v>
+      </c>
+      <c r="B3302" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3302" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3302" s="53" t="s">
+        <v>1516</v>
+      </c>
       <c r="E3302" s="6"/>
     </row>
     <row r="3303">
-      <c r="A3303" s="34"/>
-      <c r="B3303" s="16"/>
-      <c r="C3303" s="16"/>
-      <c r="D3303" s="35"/>
+      <c r="A3303" s="47">
+        <v>45579.73113866898</v>
+      </c>
+      <c r="B3303" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3303" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3303" s="52" t="s">
+        <v>1528</v>
+      </c>
       <c r="E3303" s="6"/>
     </row>
     <row r="3304">
-      <c r="A3304" s="34"/>
-      <c r="B3304" s="16"/>
-      <c r="C3304" s="16"/>
-      <c r="D3304" s="35"/>
+      <c r="A3304" s="44">
+        <v>45579.73115741898</v>
+      </c>
+      <c r="B3304" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3304" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3304" s="53" t="s">
+        <v>1107</v>
+      </c>
       <c r="E3304" s="6"/>
     </row>
     <row r="3305">
-      <c r="A3305" s="34"/>
-      <c r="B3305" s="16"/>
-      <c r="C3305" s="16"/>
-      <c r="D3305" s="35"/>
+      <c r="A3305" s="47">
+        <v>45579.73117162037</v>
+      </c>
+      <c r="B3305" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3305" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3305" s="52" t="s">
+        <v>1024</v>
+      </c>
       <c r="E3305" s="6"/>
     </row>
     <row r="3306">
-      <c r="A3306" s="34"/>
-      <c r="B3306" s="16"/>
-      <c r="C3306" s="16"/>
-      <c r="D3306" s="35"/>
+      <c r="A3306" s="44">
+        <v>45579.73117309027</v>
+      </c>
+      <c r="B3306" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3306" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3306" s="53" t="s">
+        <v>1081</v>
+      </c>
       <c r="E3306" s="6"/>
     </row>
     <row r="3307">
-      <c r="A3307" s="34"/>
-      <c r="B3307" s="16"/>
-      <c r="C3307" s="16"/>
-      <c r="D3307" s="35"/>
+      <c r="A3307" s="47">
+        <v>45579.73121622685</v>
+      </c>
+      <c r="B3307" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3307" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3307" s="52" t="s">
+        <v>1560</v>
+      </c>
       <c r="E3307" s="6"/>
     </row>
     <row r="3308">
-      <c r="A3308" s="34"/>
-      <c r="B3308" s="16"/>
-      <c r="C3308" s="16"/>
-      <c r="D3308" s="35"/>
+      <c r="A3308" s="44">
+        <v>45579.731256087965</v>
+      </c>
+      <c r="B3308" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3308" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3308" s="53" t="s">
+        <v>821</v>
+      </c>
       <c r="E3308" s="6"/>
     </row>
     <row r="3309">
-      <c r="A3309" s="34"/>
-      <c r="B3309" s="16"/>
-      <c r="C3309" s="16"/>
-      <c r="D3309" s="35"/>
+      <c r="A3309" s="47">
+        <v>45579.73130730324</v>
+      </c>
+      <c r="B3309" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3309" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3309" s="52" t="s">
+        <v>712</v>
+      </c>
       <c r="E3309" s="6"/>
     </row>
     <row r="3310">
-      <c r="A3310" s="34"/>
-      <c r="B3310" s="16"/>
-      <c r="C3310" s="16"/>
-      <c r="D3310" s="35"/>
+      <c r="A3310" s="44">
+        <v>45579.73132153935</v>
+      </c>
+      <c r="B3310" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3310" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3310" s="53" t="s">
+        <v>1169</v>
+      </c>
       <c r="E3310" s="6"/>
     </row>
     <row r="3311">
-      <c r="A3311" s="34"/>
-      <c r="B3311" s="16"/>
-      <c r="C3311" s="16"/>
-      <c r="D3311" s="35"/>
+      <c r="A3311" s="47">
+        <v>45579.73135809028</v>
+      </c>
+      <c r="B3311" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3311" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3311" s="52" t="s">
+        <v>1567</v>
+      </c>
       <c r="E3311" s="6"/>
     </row>
     <row r="3312">
-      <c r="A3312" s="34"/>
-      <c r="B3312" s="16"/>
-      <c r="C3312" s="16"/>
-      <c r="D3312" s="35"/>
+      <c r="A3312" s="44">
+        <v>45579.73136563657</v>
+      </c>
+      <c r="B3312" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3312" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3312" s="53" t="s">
+        <v>46</v>
+      </c>
       <c r="E3312" s="6"/>
     </row>
     <row r="3313">
-      <c r="A3313" s="34"/>
-      <c r="B3313" s="16"/>
-      <c r="C3313" s="16"/>
-      <c r="D3313" s="35"/>
+      <c r="A3313" s="47">
+        <v>45579.73138145833</v>
+      </c>
+      <c r="B3313" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3313" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3313" s="52" t="s">
+        <v>726</v>
+      </c>
       <c r="E3313" s="6"/>
     </row>
     <row r="3314">
-      <c r="A3314" s="34"/>
-      <c r="B3314" s="16"/>
-      <c r="C3314" s="16"/>
-      <c r="D3314" s="35"/>
+      <c r="A3314" s="44">
+        <v>45579.731383402774</v>
+      </c>
+      <c r="B3314" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3314" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3314" s="53" t="s">
+        <v>1069</v>
+      </c>
       <c r="E3314" s="6"/>
     </row>
     <row r="3315">
-      <c r="A3315" s="34"/>
-      <c r="B3315" s="16"/>
-      <c r="C3315" s="16"/>
-      <c r="D3315" s="35"/>
+      <c r="A3315" s="47">
+        <v>45579.73157229167</v>
+      </c>
+      <c r="B3315" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3315" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3315" s="52" t="s">
+        <v>496</v>
+      </c>
       <c r="E3315" s="6"/>
     </row>
     <row r="3316">
-      <c r="A3316" s="34"/>
-      <c r="B3316" s="16"/>
-      <c r="C3316" s="16"/>
-      <c r="D3316" s="35"/>
+      <c r="A3316" s="44">
+        <v>45579.73171516204</v>
+      </c>
+      <c r="B3316" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3316" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3316" s="53" t="s">
+        <v>600</v>
+      </c>
       <c r="E3316" s="6"/>
     </row>
     <row r="3317">
-      <c r="A3317" s="34"/>
-      <c r="B3317" s="16"/>
-      <c r="C3317" s="16"/>
-      <c r="D3317" s="35"/>
+      <c r="A3317" s="47">
+        <v>45579.73198329861</v>
+      </c>
+      <c r="B3317" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3317" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3317" s="52" t="s">
+        <v>883</v>
+      </c>
       <c r="E3317" s="6"/>
     </row>
     <row r="3318">
-      <c r="A3318" s="34"/>
-      <c r="B3318" s="16"/>
-      <c r="C3318" s="16"/>
-      <c r="D3318" s="35"/>
+      <c r="A3318" s="44">
+        <v>45579.732062152776</v>
+      </c>
+      <c r="B3318" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3318" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3318" s="53" t="s">
+        <v>1561</v>
+      </c>
       <c r="E3318" s="6"/>
     </row>
     <row r="3319">
-      <c r="A3319" s="34"/>
-      <c r="B3319" s="16"/>
-      <c r="C3319" s="16"/>
-      <c r="D3319" s="35"/>
+      <c r="A3319" s="47">
+        <v>45579.73208828704</v>
+      </c>
+      <c r="B3319" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3319" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3319" s="52" t="s">
+        <v>1536</v>
+      </c>
       <c r="E3319" s="6"/>
     </row>
     <row r="3320">
-      <c r="A3320" s="34"/>
-      <c r="B3320" s="16"/>
-      <c r="C3320" s="16"/>
-      <c r="D3320" s="35"/>
+      <c r="A3320" s="44">
+        <v>45579.73275011574</v>
+      </c>
+      <c r="B3320" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3320" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3320" s="53" t="s">
+        <v>1122</v>
+      </c>
       <c r="E3320" s="6"/>
     </row>
     <row r="3321">
-      <c r="A3321" s="34"/>
-      <c r="B3321" s="16"/>
-      <c r="C3321" s="16"/>
-      <c r="D3321" s="35"/>
+      <c r="A3321" s="47">
+        <v>45579.73363528935</v>
+      </c>
+      <c r="B3321" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3321" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3321" s="52" t="s">
+        <v>1568</v>
+      </c>
       <c r="E3321" s="6"/>
     </row>
     <row r="3322">
-      <c r="A3322" s="34"/>
-      <c r="B3322" s="16"/>
-      <c r="C3322" s="16"/>
-      <c r="D3322" s="35"/>
+      <c r="A3322" s="44">
+        <v>45579.73717462963</v>
+      </c>
+      <c r="B3322" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3322" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3322" s="53" t="s">
+        <v>1518</v>
+      </c>
       <c r="E3322" s="6"/>
     </row>
     <row r="3323">
-      <c r="A3323" s="34"/>
-      <c r="B3323" s="16"/>
-      <c r="C3323" s="16"/>
-      <c r="D3323" s="35"/>
+      <c r="A3323" s="47">
+        <v>45579.740055891205</v>
+      </c>
+      <c r="B3323" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3323" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3323" s="52" t="s">
+        <v>1520</v>
+      </c>
       <c r="E3323" s="6"/>
     </row>
     <row r="3324">
-      <c r="A3324" s="34"/>
-      <c r="B3324" s="16"/>
-      <c r="C3324" s="16"/>
-      <c r="D3324" s="35"/>
+      <c r="A3324" s="44">
+        <v>45579.74124019676</v>
+      </c>
+      <c r="B3324" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3324" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3324" s="53" t="s">
+        <v>1524</v>
+      </c>
       <c r="E3324" s="6"/>
     </row>
     <row r="3325">
-      <c r="A3325" s="34"/>
-      <c r="B3325" s="16"/>
-      <c r="C3325" s="16"/>
-      <c r="D3325" s="35"/>
+      <c r="A3325" s="54">
+        <v>45579.742931967594</v>
+      </c>
+      <c r="B3325" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>10/14/2024</v>
+      </c>
+      <c r="C3325" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D3325" s="55" t="s">
+        <v>1517</v>
+      </c>
       <c r="E3325" s="6"/>
     </row>
     <row r="3326">
@@ -87091,11 +87562,11 @@
       <c r="E4095" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$3290">
-    <sortState ref="A1:E3290">
-      <sortCondition ref="C1:C3290"/>
-      <sortCondition ref="B1:B3290"/>
-      <sortCondition ref="A1:A3290"/>
+  <autoFilter ref="$A$1:$E$3325">
+    <sortState ref="A1:E3325">
+      <sortCondition ref="C1:C3325"/>
+      <sortCondition ref="B1:B3325"/>
+      <sortCondition ref="A1:A3325"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -87124,7 +87595,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1562</v>
+        <v>1569</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
